--- a/teaching/traditional_assets/database/data/nigeria/nigeria_hospitals_healthcare_facilities.xlsx
+++ b/teaching/traditional_assets/database/data/nigeria/nigeria_hospitals_healthcare_facilities.xlsx
@@ -590,26 +590,23 @@
           <t>Hospitals/Healthcare Facilities</t>
         </is>
       </c>
-      <c r="D2">
-        <v>0.00355</v>
-      </c>
       <c r="G2">
-        <v>0.06603260869565217</v>
+        <v>-0.1003717472118959</v>
       </c>
       <c r="H2">
-        <v>0.06603260869565217</v>
+        <v>-0.1003717472118959</v>
       </c>
       <c r="I2">
-        <v>-0.1065217391304348</v>
+        <v>-0.254275092936803</v>
       </c>
       <c r="J2">
-        <v>-0.1065217391304348</v>
+        <v>-0.254275092936803</v>
       </c>
       <c r="K2">
-        <v>-0.6909999999999999</v>
+        <v>-0.8129999999999999</v>
       </c>
       <c r="L2">
-        <v>-0.1877717391304348</v>
+        <v>-0.3022304832713755</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="V2">
-        <v>0.01196581196581197</v>
+        <v>0.009566326530612245</v>
       </c>
       <c r="W2">
-        <v>-0.07343251859723697</v>
+        <v>-0.09713261648745521</v>
       </c>
       <c r="X2">
-        <v>0.08160384394098613</v>
+        <v>0.08318406724216443</v>
       </c>
       <c r="Y2">
-        <v>-0.1550363625382231</v>
+        <v>-0.1803166837296196</v>
       </c>
       <c r="Z2">
-        <v>0.386635847867199</v>
+        <v>0.2778925619834711</v>
       </c>
       <c r="AA2">
-        <v>-0.04118512292498424</v>
+        <v>-0.07066115702479339</v>
       </c>
       <c r="AB2">
-        <v>0.07725277445706422</v>
+        <v>0.07910046291419674</v>
       </c>
       <c r="AC2">
-        <v>-0.1184378973820485</v>
+        <v>-0.1497616199389901</v>
       </c>
       <c r="AD2">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AG2">
-        <v>1.31</v>
+        <v>1.255</v>
       </c>
       <c r="AH2">
-        <v>0.1908713692946058</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="AI2">
-        <v>0.1415384615384615</v>
+        <v>0.1631901840490798</v>
       </c>
       <c r="AJ2">
-        <v>0.1829608938547486</v>
+        <v>0.1379879054425509</v>
       </c>
       <c r="AK2">
-        <v>0.1353305785123967</v>
+        <v>0.1554179566563468</v>
       </c>
       <c r="AL2">
-        <v>0.035</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AM2">
-        <v>0.035</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AN2">
-        <v>3.399014778325123</v>
+        <v>-4.130434782608695</v>
       </c>
       <c r="AO2">
-        <v>-11.2</v>
+        <v>-7.862068965517243</v>
       </c>
       <c r="AP2">
-        <v>3.226600985221674</v>
+        <v>-3.897515527950311</v>
       </c>
       <c r="AQ2">
-        <v>-11.2</v>
+        <v>-7.862068965517243</v>
       </c>
     </row>
     <row r="3">
@@ -718,26 +715,23 @@
           <t>Hospitals/Healthcare Facilities</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.00355</v>
-      </c>
       <c r="G3">
-        <v>0.06603260869565217</v>
+        <v>-0.1003717472118959</v>
       </c>
       <c r="H3">
-        <v>0.06603260869565217</v>
+        <v>-0.1003717472118959</v>
       </c>
       <c r="I3">
-        <v>-0.1065217391304348</v>
+        <v>-0.254275092936803</v>
       </c>
       <c r="J3">
-        <v>-0.1065217391304348</v>
+        <v>-0.254275092936803</v>
       </c>
       <c r="K3">
-        <v>-0.6909999999999999</v>
+        <v>-0.8129999999999999</v>
       </c>
       <c r="L3">
-        <v>-0.1877717391304348</v>
+        <v>-0.3022304832713755</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="V3">
-        <v>0.01196581196581197</v>
+        <v>0.009566326530612245</v>
       </c>
       <c r="W3">
-        <v>-0.07343251859723697</v>
+        <v>-0.09713261648745521</v>
       </c>
       <c r="X3">
-        <v>0.08160384394098613</v>
+        <v>0.08318406724216443</v>
       </c>
       <c r="Y3">
-        <v>-0.1550363625382231</v>
+        <v>-0.1803166837296196</v>
       </c>
       <c r="Z3">
-        <v>0.386635847867199</v>
+        <v>0.2778925619834711</v>
       </c>
       <c r="AA3">
-        <v>-0.04118512292498424</v>
+        <v>-0.07066115702479339</v>
       </c>
       <c r="AB3">
-        <v>0.07725277445706422</v>
+        <v>0.07910046291419674</v>
       </c>
       <c r="AC3">
-        <v>-0.1184378973820485</v>
+        <v>-0.1497616199389901</v>
       </c>
       <c r="AD3">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AG3">
-        <v>1.31</v>
+        <v>1.255</v>
       </c>
       <c r="AH3">
-        <v>0.1908713692946058</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="AI3">
-        <v>0.1415384615384615</v>
+        <v>0.1631901840490798</v>
       </c>
       <c r="AJ3">
-        <v>0.1829608938547486</v>
+        <v>0.1379879054425509</v>
       </c>
       <c r="AK3">
-        <v>0.1353305785123967</v>
+        <v>0.1554179566563468</v>
       </c>
       <c r="AL3">
-        <v>0.035</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AM3">
-        <v>0.035</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="AN3">
-        <v>3.399014778325123</v>
+        <v>-4.130434782608695</v>
       </c>
       <c r="AO3">
-        <v>-11.2</v>
+        <v>-7.862068965517243</v>
       </c>
       <c r="AP3">
-        <v>3.226600985221674</v>
+        <v>-3.897515527950311</v>
       </c>
       <c r="AQ3">
-        <v>-11.2</v>
+        <v>-7.862068965517243</v>
       </c>
     </row>
   </sheetData>
